--- a/assets/squidpops/MarineGEO_squidpop_data_entry_template_V20180811.xlsx
+++ b/assets/squidpops/MarineGEO_squidpop_data_entry_template_V20180811.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmettduffy/Dropbox (Personal)/@DUFFY - DOCUMENTS/work/Smithsonian/TMON - MarineGEO/Protocols/squidpop protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AFFA877F-3FEB-4047-A8E7-D70E131C5BAC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0651B9FB-DB1F-9242-87D6-39A2DC232692}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="2600" windowWidth="25800" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="4440" windowWidth="20980" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="219">
   <si>
     <t>MarineGEO Squidpop template</t>
   </si>
@@ -649,12 +649,6 @@
     <t>Full names of all people that collected data. Separate multiple names with semicolons (ie Person One; Person Two; Person Three)</t>
   </si>
   <si>
-    <t>Full name of person(s) entering data. Separate multiple names with semicolons.</t>
-  </si>
-  <si>
-    <t>Date the data was entered to this form. If data was entered over multiple days, please report the last date.</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -667,9 +661,6 @@
     <t>Protocol version number if applicable</t>
   </si>
   <si>
-    <t>Data template spreadsheet version</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -679,9 +670,6 @@
     <t>list</t>
   </si>
   <si>
-    <t>Unique code for each deployment location</t>
-  </si>
-  <si>
     <t>Local or common name of the sampling location</t>
   </si>
   <si>
@@ -800,6 +788,48 @@
   </si>
   <si>
     <t>V20180811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version numberof this data entry template spreadsheet </t>
+  </si>
+  <si>
+    <t>Full name of person(s) entering data. Separate multiple names with semicolons</t>
+  </si>
+  <si>
+    <t>Date the data were entered to this form. If data were entered over multiple days, please report the most recent date</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Unique code for each deployment location, beinning with the approved three-letter code of the MarineGEO partner site</t>
+  </si>
+  <si>
+    <t>Foreign key to the locationID defined on the Station sheet</t>
+  </si>
+  <si>
+    <t>Short unique code name for the sampling event</t>
+  </si>
+  <si>
+    <t>Sampling date (yyyy-mm-dd)</t>
+  </si>
+  <si>
+    <t>People who collected the sample. First name Last name, multiple people separated by a semicolons ( ; )</t>
+  </si>
+  <si>
+    <t>Collection method. Free response</t>
+  </si>
+  <si>
+    <t>Photos associated with the sampling event or locality. Enter {Y or N} if photo file names are not yet available; or enter names of associated photo files if available. If a photo exists, the photo file should be named with the occurrenceID somewhere in the filename (ideally at the beginning of the filename). Separate multiple file names with a semicolon (;).</t>
+  </si>
+  <si>
+    <t>Field notes on the locality/station/event. Free response.</t>
+  </si>
+  <si>
+    <t>Sampling time. Military format (hh:mm)</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1380,7 @@
   </sheetPr>
   <dimension ref="A3:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1429,7 +1459,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1488,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1472,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>15</v>
@@ -1549,31 +1579,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2319,11 +2349,11 @@
   <sheetPr>
     <tabColor rgb="FF97C8EB"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2434,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>153</v>
@@ -2448,13 +2478,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
@@ -2465,7 +2495,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>153</v>
@@ -2479,7 +2509,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>153</v>
@@ -2493,7 +2523,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>153</v>
@@ -2501,29 +2531,29 @@
     </row>
     <row r="12" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>153</v>
@@ -2533,13 +2563,13 @@
     </row>
     <row r="14" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>153</v>
@@ -2549,379 +2579,529 @@
     </row>
     <row r="15" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>181</v>
+        <v>197</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>161</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>183</v>
+        <v>198</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="13"/>
+        <v>200</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>185</v>
+        <v>201</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
-        <v>186</v>
-      </c>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>161</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>183</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="13" t="s">
-        <v>186</v>
-      </c>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
-        <v>186</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>194</v>
-      </c>
       <c r="D32" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E32" s="13"/>
+        <v>158</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="F33" s="13" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E34" s="13"/>
-      <c r="F34" s="13" t="s">
-        <v>197</v>
-      </c>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="F35" s="13" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D36" s="13" t="s">
+      <c r="C45" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/squidpops/MarineGEO_squidpop_data_entry_template_V20180811.xlsx
+++ b/assets/squidpops/MarineGEO_squidpop_data_entry_template_V20180811.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmettduffy/Dropbox (Personal)/@DUFFY - DOCUMENTS/work/Smithsonian/TMON - MarineGEO/Protocols/squidpop protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0651B9FB-DB1F-9242-87D6-39A2DC232692}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E9076086-B8B6-ED4C-A6F5-A76788A9F1A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="4440" windowWidth="20980" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4100" yWindow="940" windowWidth="22220" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1380,8 +1380,8 @@
   </sheetPr>
   <dimension ref="A3:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2351,7 +2351,7 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>

--- a/assets/squidpops/MarineGEO_squidpop_data_entry_template_V20180811.xlsx
+++ b/assets/squidpops/MarineGEO_squidpop_data_entry_template_V20180811.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmettduffy/Dropbox (Personal)/@DUFFY - DOCUMENTS/work/Smithsonian/TMON - MarineGEO/Protocols/squidpop protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E9076086-B8B6-ED4C-A6F5-A76788A9F1A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{12B86A1A-4FC9-4B4A-BFEC-0247D162E33C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="940" windowWidth="22220" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="21520" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -107,7 +107,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -172,10 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="219">
-  <si>
-    <t>MarineGEO Squidpop template</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="218">
   <si>
     <t>Title</t>
   </si>
@@ -214,9 +211,6 @@
   </si>
   <si>
     <t>site</t>
-  </si>
-  <si>
-    <t>location</t>
   </si>
   <si>
     <t>locality</t>
@@ -664,9 +658,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>MarineGEO site abbreviation</t>
-  </si>
-  <si>
     <t>list</t>
   </si>
   <si>
@@ -790,9 +781,6 @@
     <t>V20180811</t>
   </si>
   <si>
-    <t xml:space="preserve">Version numberof this data entry template spreadsheet </t>
-  </si>
-  <si>
     <t>Full name of person(s) entering data. Separate multiple names with semicolons</t>
   </si>
   <si>
@@ -802,9 +790,6 @@
     <t>Event</t>
   </si>
   <si>
-    <t>Unique code for each deployment location, beinning with the approved three-letter code of the MarineGEO partner site</t>
-  </si>
-  <si>
     <t>Foreign key to the locationID defined on the Station sheet</t>
   </si>
   <si>
@@ -830,6 +815,18 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version number of this data entry template spreadsheet </t>
+  </si>
+  <si>
+    <t>Unique code for each deployment location, beginning with the approved three-letter code of the MarineGEO partner site</t>
+  </si>
+  <si>
+    <t>MarineGEO 3-letter site abbreviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MarineGEO Squidpop template </t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1378,7 @@
   <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1393,73 +1390,73 @@
   <sheetData>
     <row r="3" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1499,31 +1496,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1579,31 +1576,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="G1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1618,9 +1615,9 @@
   </sheetPr>
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1637,52 +1634,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1737,605 +1734,605 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2352,8 +2349,8 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2367,738 +2364,738 @@
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>153</v>
       </c>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>165</v>
-      </c>
       <c r="D14" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>177</v>
-      </c>
       <c r="D31" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>

--- a/assets/squidpops/MarineGEO_squidpop_data_entry_template_V20180811.xlsx
+++ b/assets/squidpops/MarineGEO_squidpop_data_entry_template_V20180811.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmettduffy/Dropbox (Personal)/@DUFFY - DOCUMENTS/work/Smithsonian/TMON - MarineGEO/Protocols/squidpop protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{12B86A1A-4FC9-4B4A-BFEC-0247D162E33C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6DB0668A-8F3D-6949-B800-337AC4087122}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="460" windowWidth="21520" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="21780" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="217">
   <si>
     <t>Title</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>ProtocolVersion</t>
-  </si>
-  <si>
-    <t>V20180802</t>
   </si>
   <si>
     <t>TemplateVersion</t>
@@ -1390,7 +1387,7 @@
   <sheetData>
     <row r="3" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -1448,15 +1445,15 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1496,31 +1493,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1576,31 +1573,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1634,52 +1631,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1734,605 +1731,605 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2364,743 +2361,744 @@
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>205</v>
-      </c>
       <c r="D21" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D31" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>157</v>
       </c>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>176</v>
       </c>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>178</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D37" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>157</v>
       </c>
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>